--- a/Consumer Staples - Cosmetics/SSDOY.xlsx
+++ b/Consumer Staples - Cosmetics/SSDOY.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Consumer Staples - Cosmetics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF82F6E-0D5D-4D30-87CA-68DC9030C5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176485E0-FC6B-4FA8-B800-D2C62D576900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -20,16 +20,16 @@
     <sheet name="DoR" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$A$26</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$A$27</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$K$26:$W$26</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$K$27:$W$27</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$K$2:$W$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$A$6</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$A$7</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$K$2:$W$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$K$6:$W$6</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$K$7:$W$7</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$A$16</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$A$17</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$O$16:$Q$16</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$O$17:$Q$17</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$O$2:$Q$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$A$3</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$A$4</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$O$2:$Q$2</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$O$3:$Q$3</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$O$4:$Q$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +65,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Simon Burghardt:</t>
         </r>
@@ -74,7 +74,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 =Total Debt / Shareholders Equity
@@ -91,7 +91,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Simon Burghardt:</t>
         </r>
@@ -100,7 +100,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 EBIT (before Interest &amp; D&amp;A) / Interest Expense
@@ -117,7 +117,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Simon Burghardt:</t>
         </r>
@@ -126,7 +126,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 = Current Assets / Current Liabilities
@@ -143,7 +143,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Simon Burghardt:</t>
         </r>
@@ -152,7 +152,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 = Cash + Marketable Securities + AR / Current Liabilities or
@@ -168,7 +168,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Simon Burghardt:</t>
         </r>
@@ -177,7 +177,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Working Capital = Current Assets - Current Liabilities
@@ -196,7 +196,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Simon Burghardt:</t>
         </r>
@@ -205,7 +205,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 BVPS = Stockholders Equity $ - Preffered Stock $ / Average Shares Outstanding
@@ -221,7 +221,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Simon Burghardt:</t>
         </r>
@@ -230,7 +230,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 = Net Sales / Average Total Assets
@@ -246,7 +246,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Simon Burghardt:</t>
         </r>
@@ -255,7 +255,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 = Net Income / Total Assets</t>
@@ -270,7 +270,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Simon Burghardt:</t>
         </r>
@@ -279,7 +279,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 = Net Income / Shareholders Equity $</t>
@@ -294,7 +294,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Simon Burghardt:</t>
         </r>
@@ -303,7 +303,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 = Last Annual Free Cash Flow per Share / Current Market Stock Price
@@ -317,7 +317,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="106">
   <si>
     <t>Price</t>
   </si>
@@ -347,15 +347,6 @@
   </si>
   <si>
     <t>Q123</t>
-  </si>
-  <si>
-    <t>Q221</t>
-  </si>
-  <si>
-    <t>Q321</t>
-  </si>
-  <si>
-    <t>Q421</t>
   </si>
   <si>
     <t>Q122</t>
@@ -391,9 +382,6 @@
     <t>Operational Income</t>
   </si>
   <si>
-    <t>D&amp;A</t>
-  </si>
-  <si>
     <t>Cash</t>
   </si>
   <si>
@@ -404,9 +392,6 @@
   </si>
   <si>
     <t>Goodwill</t>
-  </si>
-  <si>
-    <t>Other long-term liabilieties</t>
   </si>
   <si>
     <t>Total Assets</t>
@@ -428,12 +413,6 @@
   </si>
   <si>
     <t>FY24</t>
-  </si>
-  <si>
-    <t>Q121</t>
-  </si>
-  <si>
-    <t>FY19</t>
   </si>
   <si>
     <t>Net Income y/y</t>
@@ -514,19 +493,10 @@
     <t>COGS</t>
   </si>
   <si>
-    <t>Sales &amp; Marketing</t>
-  </si>
-  <si>
     <t>Current Assets</t>
   </si>
   <si>
     <t>Total Current Liabilities</t>
-  </si>
-  <si>
-    <t>Gains on Equity</t>
-  </si>
-  <si>
-    <t>Operating Lease</t>
   </si>
   <si>
     <t>Q124</t>
@@ -538,13 +508,7 @@
     <t>Rev. Exp.</t>
   </si>
   <si>
-    <t>Sales &amp; Marketing / REV</t>
-  </si>
-  <si>
     <t>Q224</t>
-  </si>
-  <si>
-    <t>Interest Collect (exp)</t>
   </si>
   <si>
     <t>FY25</t>
@@ -562,52 +526,13 @@
     <t>EV/EBITDA</t>
   </si>
   <si>
-    <t>COGS Service</t>
-  </si>
-  <si>
-    <t>COGS Product</t>
-  </si>
-  <si>
-    <t>COGS Instant</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>Instant</t>
-  </si>
-  <si>
-    <t>R&amp;D</t>
-  </si>
-  <si>
     <t>Restructuring</t>
-  </si>
-  <si>
-    <t>NI Noncontrolling Interest</t>
-  </si>
-  <si>
-    <t>Service y/y</t>
-  </si>
-  <si>
-    <t>Product y/y</t>
   </si>
   <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>Restricted Cash</t>
-  </si>
-  <si>
-    <t>Receivables</t>
-  </si>
-  <si>
     <t>Prepaid Expense</t>
-  </si>
-  <si>
-    <t>Restricted cash</t>
   </si>
   <si>
     <t>PP&amp;E</t>
@@ -616,25 +541,7 @@
     <t>Intangible Asset</t>
   </si>
   <si>
-    <t>Softeware net</t>
-  </si>
-  <si>
-    <t>Deffered Income Tax</t>
-  </si>
-  <si>
-    <t>Other asset</t>
-  </si>
-  <si>
-    <t>Long term debt</t>
-  </si>
-  <si>
-    <t>Acctured Liab</t>
-  </si>
-  <si>
     <t>Equity</t>
-  </si>
-  <si>
-    <t>Rights of use</t>
   </si>
   <si>
     <t>Current position in LTB</t>
@@ -644,15 +551,6 @@
   </si>
   <si>
     <t>Interest exp / op Inc</t>
-  </si>
-  <si>
-    <t>Assets of Businesses for Sale</t>
-  </si>
-  <si>
-    <t>Liab Business for Sale</t>
-  </si>
-  <si>
-    <t>Liab B4S</t>
   </si>
   <si>
     <t>Inventories</t>
@@ -699,15 +597,53 @@
   <si>
     <t>IGT</t>
   </si>
+  <si>
+    <t>SG&amp;A</t>
+  </si>
+  <si>
+    <t>Other Expense</t>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+  </si>
+  <si>
+    <t>Loss of Debt</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t>Accrued Expense</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>deffered tax</t>
+  </si>
+  <si>
+    <t>other long term</t>
+  </si>
+  <si>
+    <t>longterm operating lease</t>
+  </si>
+  <si>
+    <t>Debt y/y</t>
+  </si>
+  <si>
+    <t>SG&amp;A y/Y</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
-    <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -773,14 +709,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -967,7 +903,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -978,40 +913,22 @@
     <xf numFmtId="3" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1019,6 +936,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1046,6 +976,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1146,7 +1078,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$A$6</c:f>
+              <c:f>Model!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1166,7 +1098,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
-            <c:idx val="11"/>
+            <c:idx val="6"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1180,12 +1112,12 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-E309-400E-9279-09DE67BBD1C5}"/>
+                <c16:uniqueId val="{00000001-9C3A-4A9A-A1AF-89B55D232221}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="12"/>
+            <c:idx val="7"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1201,7 +1133,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-E309-400E-9279-09DE67BBD1C5}"/>
+                <c16:uniqueId val="{00000003-9C3A-4A9A-A1AF-89B55D232221}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1262,46 +1194,31 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$K$2:$W$2</c:f>
+              <c:f>Model!$J$2:$Q$2</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>Q121</c:v>
+                  <c:v>Q222</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Q221</c:v>
+                  <c:v>Q322</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Q321</c:v>
+                  <c:v>Q422</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q421</c:v>
+                  <c:v>Q123</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q122</c:v>
+                  <c:v>Q223</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q222</c:v>
+                  <c:v>Q323</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q322</c:v>
+                  <c:v>Q423</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q422</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Q123</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Q223</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Q323</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Q423</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>Q124</c:v>
                 </c:pt>
               </c:strCache>
@@ -1309,10 +1226,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$6:$W$6</c:f>
+              <c:f>Model!$J$3:$Q$3</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1343,7 +1260,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$A$30</c:f>
+              <c:f>Model!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1420,10 +1337,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$30:$W$30</c:f>
+              <c:f>Model!$J$20:$Q$20</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1434,21 +1351,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1793,7 +1695,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$A$6</c:f>
+              <c:f>Model!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1813,7 +1715,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
-            <c:idx val="4"/>
+            <c:idx val="3"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1827,12 +1729,12 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-21CC-452E-9D1B-EA54FE60E683}"/>
+                <c16:uniqueId val="{00000001-408A-41DE-9211-F7C1174BE1AF}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="5"/>
+            <c:idx val="4"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1848,7 +1750,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-8FA1-4450-8EE0-3FE2DAE0EFFF}"/>
+                <c16:uniqueId val="{00000001-21CC-452E-9D1B-EA54FE60E683}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1906,25 +1808,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$B$2:$G$2</c:f>
+              <c:f>Model!$B$2:$F$2</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>FY19</c:v>
+                  <c:v>FY20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FY20</c:v>
+                  <c:v>FY21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FY21</c:v>
+                  <c:v>FY22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FY22</c:v>
+                  <c:v>FY23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>FY23</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>FY24</c:v>
                 </c:pt>
               </c:strCache>
@@ -1932,25 +1831,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$B$6:$G$6</c:f>
+              <c:f>Model!$B$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
+                <c:ptCount val="5"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1980,7 +1864,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$A$30</c:f>
+              <c:f>Model!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2067,10 +1951,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$B$30:$G$30</c:f>
+              <c:f>Model!$B$20:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2081,9 +1965,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2428,7 +2309,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$A$24</c:f>
+              <c:f>Model!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2448,7 +2329,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
-            <c:idx val="11"/>
+            <c:idx val="6"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -2462,12 +2343,12 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-C0F4-4607-8C78-36F0EE07B767}"/>
+                <c16:uniqueId val="{00000001-550B-4987-B46B-73A2418B5961}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="12"/>
+            <c:idx val="7"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -2483,7 +2364,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-C0F4-4607-8C78-36F0EE07B767}"/>
+                <c16:uniqueId val="{00000003-550B-4987-B46B-73A2418B5961}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2544,46 +2425,31 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$K$2:$W$2</c:f>
+              <c:f>Model!$J$2:$Q$2</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>Q121</c:v>
+                  <c:v>Q222</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Q221</c:v>
+                  <c:v>Q322</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Q321</c:v>
+                  <c:v>Q422</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q421</c:v>
+                  <c:v>Q123</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q122</c:v>
+                  <c:v>Q223</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q222</c:v>
+                  <c:v>Q323</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q322</c:v>
+                  <c:v>Q423</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q422</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Q123</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Q223</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Q323</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Q423</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>Q124</c:v>
                 </c:pt>
               </c:strCache>
@@ -2591,10 +2457,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$24:$W$24</c:f>
+              <c:f>Model!$J$14:$Q$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2617,21 +2483,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2664,7 +2515,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$A$28</c:f>
+              <c:f>Model!$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2741,10 +2592,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$28:$W$28</c:f>
+              <c:f>Model!$J$18:$Q$18</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2767,18 +2618,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3123,7 +2962,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$A$24</c:f>
+              <c:f>Model!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3197,25 +3036,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$B$2:$G$2</c:f>
+              <c:f>Model!$B$2:$F$2</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>FY19</c:v>
+                  <c:v>FY20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FY20</c:v>
+                  <c:v>FY21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FY21</c:v>
+                  <c:v>FY22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>FY22</c:v>
+                  <c:v>FY23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>FY23</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>FY24</c:v>
                 </c:pt>
               </c:strCache>
@@ -3223,10 +3059,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$B$24:$G$24</c:f>
+              <c:f>Model!$B$14:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3257,7 +3108,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$A$34</c:f>
+              <c:f>Model!$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3332,10 +3183,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$B$34:$G$34</c:f>
+              <c:f>Model!$B$23:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3346,9 +3197,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3633,417 +3481,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Model!$A$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sales &amp; Marketing / REV</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Model!$K$2:$U$2</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Model!$M$2:$U$2</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Q321</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Q421</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Q122</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Q222</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Q322</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Q422</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Q123</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Q223</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Q323</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Model!$K$31:$U$31</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Model!$M$31:$U$31</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-35FE-4BEB-944F-3D772460C6A2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="t"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="612211264"/>
-        <c:axId val="675465584"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="612211264"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="675465584"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="675465584"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="612211264"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -4064,7 +3501,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Stock Price LNW</a:t>
+              <a:t>Stock Price ELF</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4146,7 +3583,7 @@
             <c:numRef>
               <c:f>Catalysts!$B$2:$B$10000</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>@</c:formatCode>
                 <c:ptCount val="9999"/>
               </c:numCache>
             </c:numRef>
@@ -4154,7 +3591,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-131E-4DBD-9840-358B77AFB12C}"/>
+              <c16:uniqueId val="{00000000-DA52-461C-BC2D-9CAFEE3BC45B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4226,308 +3663,6 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="693983327"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Stock Price LNW</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Catalysts!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Close</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="85000"/>
-                  <a:lumOff val="15000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Catalysts!$A$2:$A$10000</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="9999"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Catalysts!$B$2:$B$10000</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="9999"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DA52-461C-BC2D-9CAFEE3BC45B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="693983327"/>
-        <c:axId val="737522224"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="693983327"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="7148"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="737522224"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="737522224"/>
-        <c:scaling>
-          <c:logBase val="5"/>
-          <c:orientation val="minMax"/>
           <c:min val="5"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4546,7 +3681,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="@" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5125,86 +4260,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -7270,522 +6325,6 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="409">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8302,7 +6841,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="409">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8819,523 +7358,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10005,42 +8028,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF6B5C94-7DE1-FBD4-886C-765E7EB854A3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>30</xdr:row>
@@ -10071,7 +8058,7 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
@@ -10149,7 +8136,7 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
@@ -10203,42 +8190,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>352424</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E8C129C-DBE3-1F2F-B16B-A26ABC76A929}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -10268,17 +8219,13 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10544,10 +8491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N54"/>
+  <dimension ref="B2:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10568,58 +8515,60 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="34" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="C2" s="19"/>
       <c r="E2" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="72" t="s">
-        <v>54</v>
+        <v>46</v>
+      </c>
+      <c r="F2" s="59" t="s">
+        <v>47</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="26" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="I2" s="26" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C3" s="20">
-        <v>45368</v>
+        <v>45374</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="28"/>
+      <c r="H3" s="5"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="39"/>
+      <c r="J3" s="38"/>
       <c r="L3" s="5"/>
-      <c r="N3" s="38"/>
+      <c r="N3" s="37"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="21">
-        <v>0.94444444444444442</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="28"/>
+      <c r="H4" s="5"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="39"/>
+      <c r="J4" s="38"/>
       <c r="L4" s="5"/>
       <c r="N4" s="13"/>
     </row>
@@ -10629,7 +8578,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="28"/>
       <c r="I5" s="10"/>
-      <c r="J5" s="39"/>
+      <c r="J5" s="38"/>
       <c r="L5" s="5"/>
       <c r="N5" s="13"/>
     </row>
@@ -10641,7 +8590,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="28"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="39"/>
+      <c r="J6" s="38"/>
       <c r="L6" s="5"/>
       <c r="N6" s="13"/>
     </row>
@@ -10653,7 +8602,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="28"/>
       <c r="I7" s="10"/>
-      <c r="J7" s="39"/>
+      <c r="J7" s="38"/>
       <c r="L7" s="5"/>
       <c r="N7" s="13"/>
     </row>
@@ -10661,11 +8610,14 @@
       <c r="B8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="15">
+        <f>C6*C7</f>
+        <v>0</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="28"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="39"/>
+      <c r="J8" s="38"/>
       <c r="L8" s="5"/>
       <c r="N8" s="13"/>
     </row>
@@ -10673,11 +8625,14 @@
       <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9" s="15">
+        <f>Model!E29</f>
+        <v>0</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="28"/>
       <c r="I9" s="10"/>
-      <c r="J9" s="39"/>
+      <c r="J9" s="38"/>
       <c r="L9" s="5"/>
       <c r="N9" s="13"/>
     </row>
@@ -10685,23 +8640,29 @@
       <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="15">
+        <f>Model!E40+Model!E44</f>
+        <v>0</v>
+      </c>
       <c r="E10" s="5"/>
       <c r="F10" s="28"/>
       <c r="I10" s="10"/>
-      <c r="J10" s="39"/>
+      <c r="J10" s="38"/>
       <c r="L10" s="5"/>
       <c r="N10" s="13"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="15"/>
+        <v>34</v>
+      </c>
+      <c r="C11" s="15">
+        <f>C9-C10</f>
+        <v>0</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="28"/>
       <c r="I11" s="10"/>
-      <c r="J11" s="39"/>
+      <c r="J11" s="38"/>
       <c r="L11" s="5"/>
       <c r="N11" s="13"/>
     </row>
@@ -10709,7 +8670,10 @@
       <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12" s="15">
+        <f>C8-C9+C10</f>
+        <v>0</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="28"/>
       <c r="J12" s="13"/>
@@ -10718,9 +8682,12 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="36"/>
+        <v>45</v>
+      </c>
+      <c r="C13" s="36" t="e">
+        <f>C6/Model!E16</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="J13" s="13"/>
       <c r="L13" s="5"/>
@@ -10728,9 +8695,12 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="36"/>
+        <v>43</v>
+      </c>
+      <c r="C14" s="36" t="e">
+        <f>C6/Model!F17</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="E14" s="22"/>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
@@ -10743,269 +8713,275 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="36"/>
+        <v>44</v>
+      </c>
+      <c r="C15" s="36" t="e">
+        <f>C6/Model!G17</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="6"/>
+        <v>41</v>
+      </c>
+      <c r="C16" s="6" t="e">
+        <f>Model!F17/Model!E16-1</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="6"/>
+        <v>42</v>
+      </c>
+      <c r="C17" s="6" t="e">
+        <f>Model!G17/Model!F17-1</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="E17" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="L17" s="73"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="75"/>
+        <v>52</v>
+      </c>
+      <c r="L17" s="71"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="73"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="57"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="78"/>
+        <v>65</v>
+      </c>
+      <c r="C18" s="50" t="e">
+        <f>C14/C16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L18" s="74"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="76"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="57"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="78"/>
+        <v>66</v>
+      </c>
+      <c r="C19" s="50" t="e">
+        <f>C15/C17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L19" s="74"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="76"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="78"/>
+        <v>80</v>
+      </c>
+      <c r="C20" s="6" t="e">
+        <f>Model!F4/Model!E3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L20" s="74"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="76"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="78"/>
+        <v>81</v>
+      </c>
+      <c r="C21" s="6" t="e">
+        <f>Model!G4/Model!F4-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L21" s="74"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="76"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="51"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="78"/>
+        <v>67</v>
+      </c>
+      <c r="C22" s="15">
+        <f>Model!E12+Model!E10</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="74"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="76"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="78"/>
+        <v>16</v>
+      </c>
+      <c r="C23" s="15">
+        <f>Model!E12</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="74"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="76"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="77"/>
-      <c r="N24" s="78"/>
+        <v>28</v>
+      </c>
+      <c r="C24" s="7" t="e">
+        <f>Model!E18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L24" s="74"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="76"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="L25" s="76"/>
-      <c r="M25" s="77"/>
-      <c r="N25" s="78"/>
+        <v>29</v>
+      </c>
+      <c r="C25" s="7" t="e">
+        <f>Model!E19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L25" s="74"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="76"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="77"/>
-      <c r="N26" s="78"/>
+        <v>68</v>
+      </c>
+      <c r="C26" s="36" t="e">
+        <f>C12/C23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L26" s="74"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="76"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C27" s="13"/>
+        <v>82</v>
+      </c>
+      <c r="C27" s="6" t="e">
+        <f>Model!E44/Model!E49</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="E27" t="s">
-        <v>92</v>
-      </c>
-      <c r="L27" s="76"/>
-      <c r="M27" s="77"/>
-      <c r="N27" s="78"/>
+        <v>70</v>
+      </c>
+      <c r="L27" s="74"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="76"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="L28" s="79"/>
-      <c r="M28" s="80"/>
-      <c r="N28" s="81"/>
+        <v>83</v>
+      </c>
+      <c r="C28" s="36" t="e">
+        <f>C22/-Model!E10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L28" s="77"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="79"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" s="13"/>
+        <v>84</v>
+      </c>
+      <c r="C29" s="36" t="e">
+        <f>Model!E33/Model!E43</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" s="13"/>
+        <v>85</v>
+      </c>
+      <c r="C30" s="36" t="e">
+        <f>(Model!E29+Model!E30)/Model!E43</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" s="13"/>
+        <v>86</v>
+      </c>
+      <c r="C31" s="6" t="e">
+        <f>(Model!E33-Model!E43)/Model!E39</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" s="13"/>
+        <v>87</v>
+      </c>
+      <c r="C32" s="36" t="e">
+        <f>(Model!E39-Model!E48)/Main!C7</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C33" s="13"/>
+        <v>88</v>
+      </c>
+      <c r="C33" s="36" t="e">
+        <f>Model!E3/Model!E39</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34" s="13"/>
+        <v>89</v>
+      </c>
+      <c r="C34" s="38" t="e">
+        <f>Model!E14/Model!E39</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C35" s="13"/>
+        <v>90</v>
+      </c>
+      <c r="C35" s="38" t="e">
+        <f>Model!E14/Model!E49</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="22" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="C36" s="23"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="71"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E42" s="68"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="71"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E43" s="68"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="71"/>
-      <c r="I43" s="71"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E44" s="68"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="71"/>
-      <c r="I44" s="71"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E45" s="68"/>
-      <c r="F45" s="68"/>
-      <c r="G45" s="71"/>
-      <c r="H45" s="71"/>
-      <c r="I45" s="71"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E46" s="68"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="71"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E47" s="68"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="71"/>
-      <c r="I47" s="71"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E48" s="68"/>
-      <c r="F48" s="68"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="71"/>
-      <c r="I48" s="71"/>
-    </row>
-    <row r="49" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="71"/>
-      <c r="H49" s="71"/>
-      <c r="I49" s="71"/>
-    </row>
-    <row r="50" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E50" s="68"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="71"/>
-      <c r="I50" s="71"/>
-    </row>
-    <row r="51" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E51" s="68"/>
-      <c r="F51" s="68"/>
-      <c r="G51" s="71"/>
-      <c r="H51" s="71"/>
-      <c r="I51" s="71"/>
-    </row>
-    <row r="52" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E52" s="69"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="70"/>
-    </row>
-    <row r="53" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E53" s="69"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
-    </row>
-    <row r="54" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E54" s="69"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="70"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11018,2376 +8994,1590 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
-  <dimension ref="A1:X91"/>
+  <dimension ref="A1:R70"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I72" sqref="I72"/>
+      <selection pane="bottomRight" activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="13"/>
-    <col min="22" max="22" width="11.42578125" style="13"/>
+    <col min="5" max="5" width="11.42578125" style="13"/>
+    <col min="16" max="16" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="B1" s="12">
+        <v>43921</v>
+      </c>
+      <c r="C1" s="12">
+        <v>44286</v>
+      </c>
+      <c r="D1" s="12">
+        <v>44651</v>
+      </c>
+      <c r="E1" s="20">
+        <v>45016</v>
+      </c>
+      <c r="J1" s="12">
+        <v>44742</v>
+      </c>
+      <c r="K1" s="12">
+        <v>44834</v>
+      </c>
+      <c r="L1" s="20">
+        <v>44926</v>
+      </c>
+      <c r="M1" s="20">
+        <v>44957</v>
+      </c>
+      <c r="N1" s="12">
+        <v>45107</v>
+      </c>
+      <c r="O1" s="12">
+        <v>45199</v>
+      </c>
+      <c r="P1" s="20">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="Q2" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R2" t="s">
-        <v>8</v>
-      </c>
-      <c r="S2" t="s">
-        <v>9</v>
-      </c>
-      <c r="T2" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" t="s">
-        <v>44</v>
-      </c>
-      <c r="V2" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="W2" t="s">
-        <v>70</v>
-      </c>
-      <c r="X2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="65"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="56"/>
-    </row>
-    <row r="6" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="11">
-        <f>SUM(B3:B5)</f>
+        <v>62</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+    </row>
+    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="65"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="40">
+        <f>E6*1.55</f>
         <v>0</v>
       </c>
-      <c r="C6" s="11">
-        <f>SUM(C3:C5)</f>
+      <c r="G6" s="40">
+        <f>F6*1.1</f>
         <v>0</v>
       </c>
-      <c r="D6" s="11">
-        <f>SUM(D3:D5)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="11">
-        <f>SUM(E3:E5)</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="14">
-        <f>SUM(F3:F5)</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="11"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>72</v>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="81"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="9"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>69</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="41"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="41"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>82</v>
+      <c r="E7" s="15"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="9"/>
+    </row>
+    <row r="8" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="11">
+        <f t="shared" ref="B8:E8" si="0">B3-B5-B6-B7</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="43">
+        <f>F4-F5-F6-F7</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="43">
+        <f>G4-G5-G6-G7</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="11">
+        <f t="shared" ref="J8" si="1">J3-J5-J6-J7</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="11">
+        <f t="shared" ref="K8" si="2">K3-K5-K6-K7</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="11">
+        <f t="shared" ref="L8" si="3">L3-L5-L6-L7</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="11">
+        <f t="shared" ref="M8" si="4">M3-M5-M6-M7</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="11">
+        <f>N3-N5-N6-N7</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="11">
+        <f t="shared" ref="O8" si="5">O3-O5-O6-O7</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="14">
+        <f t="shared" ref="P8:Q8" si="6">P3-P5-P6-P7</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="65"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>94</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="41"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>83</v>
+      <c r="E9" s="15"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="9"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>95</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="41"/>
-    </row>
-    <row r="11" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="11">
-        <f>B8+B9+B10</f>
+      <c r="E10" s="15"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="9"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="9"/>
+    </row>
+    <row r="12" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="11">
+        <f t="shared" ref="B12:F12" si="7">B8+B9+B10+B11</f>
         <v>0</v>
       </c>
-      <c r="C11" s="11">
-        <f>C8+C9+C10</f>
+      <c r="C12" s="11">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="D11" s="11">
-        <f>D8+D9+D10</f>
+      <c r="D12" s="11">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E11" s="11">
-        <f>E8+E9+E10</f>
+      <c r="E12" s="14">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F11" s="14">
-        <f>F8+F9+F10</f>
+      <c r="F12" s="43">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G11" s="44">
-        <f>G7*(1-G28)</f>
+      <c r="G12" s="43">
+        <f>G8+G9+G10+G11</f>
         <v>0</v>
       </c>
-      <c r="H11" s="44">
-        <f>H7*(1-H28)</f>
+      <c r="J12" s="11">
+        <f t="shared" ref="J12:Q12" si="8">J8+J9+J10+J11</f>
         <v>0</v>
       </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="14"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="15"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K12" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="43">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="65"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="J13" s="10"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="15"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="15"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P13" s="15"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="9"/>
+    </row>
+    <row r="14" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="11">
+        <f t="shared" ref="B14:G14" si="9">B12+B13</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="63">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="63">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="11">
+        <f t="shared" ref="J14:Q14" si="10">J12+J13</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="43">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="43"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="15"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="15"/>
-    </row>
-    <row r="17" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="11">
-        <f>B6-B11-B12-B13-B14-B15-B16</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="11">
-        <f>C6-C11-C12-C13-C14-C15-C16</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="11">
-        <f>D6-D11-D12-D13-D14-D15-D16</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="11">
-        <f>E6-E11-E12-E13-E14-E15-E16</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="14">
-        <f>F6-F11-F12-F13-F14-F15-F16</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="44">
-        <f>G7-G11-G12-G13-G14-G15-G16</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="44">
-        <f>H7-H11-H12-H13-H14-H15-H16</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="11">
-        <f t="shared" ref="K17:V17" si="0">K6-K11-K12-K13-K16</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S17" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T17" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U17" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V17" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P15" s="15"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+    </row>
+    <row r="16" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2" t="e">
+        <f t="shared" ref="B16:G16" si="11">B14/B15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C16" s="2" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D16" s="2" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E16" s="55" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F16" s="69" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G16" s="69" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J16" s="2" t="e">
+        <f t="shared" ref="J16:Q16" si="12">J14/J15</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K16" s="2" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L16" s="2" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M16" s="2" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N16" s="2" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O16" s="2" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P16" s="35" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q16" s="66" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R16" s="66"/>
+    </row>
+    <row r="17" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="70"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="66"/>
+    </row>
+    <row r="18" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="15"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="B18" s="3" t="e">
+        <f>1-B5/B3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C18" s="3" t="e">
+        <f>1-C5/C3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D18" s="3" t="e">
+        <f>1-D5/D3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E18" s="6" t="e">
+        <f>1-E5/E3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F18" s="45"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="61"/>
+      <c r="J18" s="3" t="e">
+        <f t="shared" ref="J18:M18" si="13">1-J5/J3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K18" s="3" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L18" s="3" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M18" s="3" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N18" s="3" t="e">
+        <f>1-N5/N3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O18" s="3" t="e">
+        <f>1-O5/O3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P18" s="6" t="e">
+        <f>1-P5/P3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q18" s="56" t="e">
+        <f>1-Q5/Q3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R18" s="65"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="15"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="B19" s="4" t="e">
+        <f>B14/B3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C19" s="4" t="e">
+        <f>C14/C3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D19" s="4" t="e">
+        <f>D14/D3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E19" s="7" t="e">
+        <f>E14/E3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="J19" s="4" t="e">
+        <f t="shared" ref="J19:M19" si="14">J14/J3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K19" s="4" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L19" s="4" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M19" s="4" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N19" s="4" t="e">
+        <f>N14/N3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O19" s="4" t="e">
+        <f>O14/O3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P19" s="7" t="e">
+        <f>P14/P3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q19" s="68" t="e">
+        <f>Q14/Q3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R19" s="9"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="15"/>
-    </row>
-    <row r="21" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="11">
-        <f t="shared" ref="B21:H21" si="1">B17+B18+B19+B20</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D21" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="11">
-        <f t="shared" ref="K21:S21" si="2">K17+K18+K19</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S21" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T21" s="11">
-        <f>T17+T18+T19</f>
-        <v>0</v>
-      </c>
-      <c r="U21" s="11">
-        <f>U17+U18+U19</f>
-        <v>0</v>
-      </c>
-      <c r="V21" s="14">
-        <f>V17+V18+V19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="15"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="15"/>
-    </row>
-    <row r="24" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="K24" s="11">
-        <f>K21-K22-K23</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="11">
-        <f>L21-L22-L23</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="11">
-        <f>M21-M22-M23</f>
-        <v>0</v>
-      </c>
-      <c r="N24" s="11">
-        <f t="shared" ref="N24:R24" si="3">N21+N22+N23</f>
-        <v>0</v>
-      </c>
-      <c r="O24" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="11">
-        <f>P21-P22-P23</f>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="11">
-        <f>Q21-Q22-Q23</f>
-        <v>0</v>
-      </c>
-      <c r="R24" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S24" s="11">
-        <f>S21-S22-S23</f>
-        <v>0</v>
-      </c>
-      <c r="T24" s="11">
-        <f>T21-T22-T23</f>
-        <v>0</v>
-      </c>
-      <c r="U24" s="11">
-        <f>U21-U22-U23</f>
-        <v>0</v>
-      </c>
-      <c r="V24" s="14">
-        <f>V21-V22-V23</f>
-        <v>0</v>
-      </c>
-      <c r="W24" s="11">
-        <f>W25*W27</f>
-        <v>0</v>
-      </c>
-      <c r="X24" s="11"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="10"/>
-    </row>
-    <row r="26" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="2" t="e">
-        <f>B24/B25</f>
+        <v>30</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="e">
+        <f>C3/B3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C26" s="2" t="e">
-        <f>C24/C25</f>
+      <c r="D20" s="39" t="e">
+        <f>D3/C3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D26" s="2" t="e">
-        <f>D24/D25</f>
+      <c r="E20" s="6" t="e">
+        <f>E3/D3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E26" s="2" t="e">
-        <f>E24/E25</f>
+      <c r="F20" s="47" t="e">
+        <f>F4/E3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F26" s="63" t="e">
-        <f>F24/F25</f>
+      <c r="G20" s="47" t="e">
+        <f>G4/F4-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="64"/>
-      <c r="H26" s="65"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="53"/>
-      <c r="X26" s="53"/>
-    </row>
-    <row r="27" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="46"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="54"/>
-      <c r="S27" s="54"/>
-      <c r="T27" s="54"/>
-      <c r="U27" s="54"/>
-      <c r="V27" s="52"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="53"/>
-    </row>
-    <row r="28" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="3" t="e">
-        <f>1-B11/B6</f>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3" t="e">
+        <f>N3/J3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C28" s="3" t="e">
-        <f>1-C11/C6</f>
+      <c r="O20" s="3" t="e">
+        <f>O3/K3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D28" s="3" t="e">
-        <f>1-D11/D6</f>
+      <c r="P20" s="3" t="e">
+        <f>P3/L3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E28" s="3" t="e">
-        <f>1-E11/E6</f>
+      <c r="Q20" s="45" t="e">
+        <f>Q3/M3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F28" s="6" t="e">
-        <f>1-F11/F6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="K28" s="3" t="e">
-        <f t="shared" ref="K28:V28" si="4">1-K11/K6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L28" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M28" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N28" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O28" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P28" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q28" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R28" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S28" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T28" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U28" s="3" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V28" s="6" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="4" t="e">
-        <f>B24/B6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C29" s="4" t="e">
-        <f>C24/C6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D29" s="4" t="e">
-        <f>D24/D6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E29" s="4" t="e">
-        <f>E24/E6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F29" s="7" t="e">
-        <f>F24/F6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G29" s="48" t="e">
-        <f>G24/G7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H29" s="48" t="e">
-        <f>H24/H7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K29" s="4" t="e">
-        <f t="shared" ref="K29:V29" si="5">K24/K6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L29" s="4" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M29" s="4" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N29" s="4" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O29" s="4" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P29" s="4" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q29" s="4" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R29" s="4" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S29" s="4" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T29" s="4" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U29" s="4" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V29" s="7" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3" t="e">
+      <c r="R20" s="46"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="e">
         <f>C6/B6-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D30" s="3" t="e">
-        <f>D6/C6-1</f>
+      <c r="D21" s="3" t="e">
+        <f t="shared" ref="D21:G21" si="15">D6/C6-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E30" s="40" t="e">
-        <f>E6/D6-1</f>
+      <c r="E21" s="6" t="e">
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F30" s="6" t="e">
-        <f>F6/E6-1</f>
+      <c r="F21" s="67" t="e">
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G30" s="49" t="e">
-        <f>G7/F6-1</f>
+      <c r="G21" s="67" t="e">
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="49" t="e">
-        <f>H7/G7-1</f>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="4" t="e">
+        <f>-B13/B12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4" t="e">
-        <f t="shared" ref="O30:V30" si="6">O6/K6-1</f>
+      <c r="C22" s="4" t="e">
+        <f>-C13/C12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P30" s="4" t="e">
-        <f t="shared" si="6"/>
+      <c r="D22" s="4" t="e">
+        <f>-D13/D12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q30" s="4" t="e">
-        <f t="shared" si="6"/>
+      <c r="E22" s="4" t="e">
+        <f>-E13/E12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R30" s="4" t="e">
-        <f t="shared" si="6"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="J22" s="4" t="e">
+        <f>-J13/J12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S30" s="4" t="e">
-        <f t="shared" si="6"/>
+      <c r="K22" s="4" t="e">
+        <f t="shared" ref="K22:N22" si="16">-K13/K12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T30" s="4" t="e">
-        <f t="shared" si="6"/>
+      <c r="L22" s="4" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U30" s="4" t="e">
-        <f t="shared" si="6"/>
+      <c r="M22" s="4" t="e">
+        <f>-M13/M12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V30" s="7" t="e">
-        <f t="shared" si="6"/>
+      <c r="N22" s="4" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W30" s="37" t="e">
-        <f>W7/S6-1</f>
+      <c r="O22" s="4" t="e">
+        <f>-O13/O12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X30" s="37" t="e">
-        <f>X7/T6-1</f>
+      <c r="P22" s="7" t="e">
+        <f>-P13/P12</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="e">
+        <f>-(C14/B14-1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D23" s="39" t="e">
+        <f>D14/C14-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E23" s="6" t="e">
+        <f>E14/D14-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F23" s="56" t="e">
+        <f>F17/E16-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G23" s="56" t="e">
+        <f>G17/F17-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="68"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="51" t="e">
+        <f>B9/B3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C24" s="51" t="e">
+        <f>-C10/C3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D24" s="51" t="e">
+        <f>-D10/D3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E24" s="52" t="e">
+        <f>-E10/E3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="4"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="53" t="e">
+        <f>-B9/B8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C25" s="53" t="e">
+        <f>-C10/C8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D25" s="53" t="e">
+        <f>-D10/D8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="52" t="e">
+        <f>-E10/E8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="4"/>
+    </row>
+    <row r="28" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="11">
+        <f t="shared" ref="B28:E28" si="17">B29+B31-B40-B41-B47</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="11">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="11">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="11">
+        <f t="shared" ref="I28:N28" si="18">I29+I30+I31-I40-I41</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="11">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="11">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="11">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="11">
+        <f>M29+M30+M31-M40-M41</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="11">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="11">
+        <f>O29+O30+O31-O40-O41</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="14">
+        <f>P29+P30+P31-P40-P41</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="11">
+        <f>Q29+Q30+Q31-Q40-Q41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="15"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="15"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="15"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="15"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="15"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="15"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="15"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="15"/>
+    </row>
+    <row r="33" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="11">
+        <f>SUM(B29:B32)</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="11">
+        <f>SUM(C29:C32)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="11">
+        <f>SUM(D29:D32)</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="14">
+        <f>SUM(E29:E32)</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="11">
+        <f t="shared" ref="I33:P33" si="19">SUM(I29:I32)</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="11">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="11">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="11">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="11">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="11">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="11">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="14">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="15"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="15"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="4" t="e">
-        <f>B12/B6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C31" s="4" t="e">
-        <f>C12/C6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D31" s="4" t="e">
-        <f>D12/D6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E31" s="4" t="e">
-        <f>E12/E6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" s="4" t="e">
-        <f>F12/F6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" s="50"/>
-      <c r="H31" s="49"/>
-      <c r="K31" s="4" t="e">
-        <f t="shared" ref="K31:V31" si="7">K12/K6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L31" s="4" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M31" s="4" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N31" s="4" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O31" s="4" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P31" s="4" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q31" s="4" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R31" s="4" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S31" s="4" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T31" s="4" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U31" s="4" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V31" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W31" s="4"/>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4" t="e">
-        <f t="shared" ref="D32:F33" si="8">D3/C3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E32" s="4" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F32" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="7"/>
-      <c r="W32" s="4"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>91</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E33" s="4" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F33" s="7" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="7"/>
-      <c r="W33" s="4"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3" t="e">
-        <f>-(C24/B24-1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D34" s="3" t="e">
-        <f>-(D24/C24-1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E34" s="40" t="e">
-        <f>E24/D24-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F34" s="6" t="e">
-        <f>F24/E24-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G34" s="66" t="e">
-        <f>G26/F26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H34" s="66" t="e">
-        <f>H26/G26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4" t="e">
-        <f t="shared" ref="O34:W34" si="9">O24/K24-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P34" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q34" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R34" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S34" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T34" s="4" t="e">
-        <f>T24/P24-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U34" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V34" s="7" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W34" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>107</v>
-      </c>
-      <c r="B35" s="58" t="e">
-        <f t="shared" ref="B35:E35" si="10">B18/B6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C35" s="58" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D35" s="58" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E35" s="58" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F35" s="59" t="e">
-        <f>F18/F6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G35" s="58" t="e">
-        <f>G18/G7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H35" s="58" t="e">
-        <f>H18/H7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="7"/>
-      <c r="W35" s="4"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="15"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="64"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>108</v>
-      </c>
-      <c r="B36" s="60" t="e">
-        <f>-B18/B17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C36" s="60" t="e">
-        <f t="shared" ref="C36:H36" si="11">-C18/C17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D36" s="60" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E36" s="60" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F36" s="59" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G36" s="58" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H36" s="58" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="7"/>
-      <c r="W36" s="4"/>
-    </row>
-    <row r="39" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="15"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="15"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="15"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="15"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="15"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="15"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B39" s="11">
-        <f>B40+B42-B58-B59-B66-B68</f>
+        <f>SUM(B33:B38)</f>
         <v>0</v>
       </c>
       <c r="C39" s="11">
-        <f>C40+C42-C58-C59-C66-C68</f>
+        <f>SUM(C33:C38)</f>
         <v>0</v>
       </c>
       <c r="D39" s="11">
-        <f>D40+D42-D58-D59-D66-D68</f>
+        <f>SUM(D33:D38)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="11">
-        <f>E40+E42-E58-E59-E66-E68</f>
+      <c r="E39" s="14">
+        <f>SUM(E33:E38)</f>
         <v>0</v>
       </c>
-      <c r="F39" s="14">
-        <f>F40+F42-F58-F59-F66-F68</f>
+      <c r="I39" s="11">
+        <f t="shared" ref="I39:P39" si="20">SUM(I33:I38)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="11" t="e">
-        <f>K40+K41+K42-K58-K59-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L39" s="11" t="e">
-        <f>L40+L41+L42-L58-L59-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M39" s="11" t="e">
-        <f>M40+M41+M42-M58-M59-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N39" s="11" t="e">
-        <f>N40+N41+N42-N58-N59-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O39" s="11" t="e">
-        <f>O40+O41+O42-O58-O59-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P39" s="11" t="e">
-        <f>P40+P41+P42-P58-P59-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q39" s="11" t="e">
-        <f>Q40+Q41+Q42-Q58-Q59-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R39" s="11" t="e">
-        <f>R40+R41+R42-R58-R59-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S39" s="11" t="e">
-        <f>S40+S41+S42-S58-S59-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T39" s="11" t="e">
-        <f>T40+T41+T42-T58-T59-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U39" s="11" t="e">
-        <f>U40+U41+U42-U58-U59-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V39" s="14" t="e">
-        <f>V40+V41+V42-V58-V59-#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="J39" s="11">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="11">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="11">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="11">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="11">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="11">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="14">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
       <c r="K40" s="10"/>
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="15"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P40" s="15"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
       <c r="K41" s="10"/>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="15"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P41" s="15"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
       <c r="K42" s="10"/>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="15"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>112</v>
-      </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="15"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="15"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P42" s="15"/>
+    </row>
+    <row r="43" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="11">
+        <f>SUM(B40:B42)</f>
+        <v>0</v>
+      </c>
+      <c r="C43" s="11">
+        <f>SUM(C40:C42)</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="11">
+        <f>SUM(D40:D42)</f>
+        <v>0</v>
+      </c>
+      <c r="E43" s="14">
+        <f>SUM(E40:E42)</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="11">
+        <f t="shared" ref="I43:P43" si="21">SUM(I40:I42)</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="11">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="11">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="11">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="11">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="11">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="11">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="10"/>
-      <c r="T44" s="10"/>
-      <c r="U44" s="10"/>
-      <c r="V44" s="15"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P44" s="15"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
       <c r="K45" s="10"/>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="10"/>
-      <c r="T45" s="10"/>
-      <c r="U45" s="10"/>
-      <c r="V45" s="15"/>
-    </row>
-    <row r="46" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B46" s="11">
-        <f t="shared" ref="B46:C46" si="12">SUM(B40:B45)</f>
-        <v>0</v>
-      </c>
-      <c r="C46" s="11">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D46" s="11">
-        <f>SUM(D40:D45)</f>
-        <v>0</v>
-      </c>
-      <c r="E46" s="11">
-        <f t="shared" ref="E46:F46" si="13">SUM(E40:E45)</f>
-        <v>0</v>
-      </c>
-      <c r="F46" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="11">
-        <f t="shared" ref="K46:V46" si="14">SUM(K40:K45)</f>
-        <v>0</v>
-      </c>
-      <c r="L46" s="11">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="M46" s="11">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="N46" s="11">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O46" s="11">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P46" s="11">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Q46" s="11">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R46" s="11">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="S46" s="11">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="T46" s="11">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U46" s="11">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="V46" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P45" s="15"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="15"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="15"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="10"/>
-      <c r="T47" s="10"/>
-      <c r="U47" s="10"/>
-      <c r="V47" s="15"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="15"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="10"/>
-      <c r="T48" s="10"/>
-      <c r="U48" s="10"/>
-      <c r="V48" s="15"/>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P47" s="15"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="11">
+        <f>SUM(B43:B47)</f>
+        <v>0</v>
+      </c>
+      <c r="C48" s="11">
+        <f>SUM(C43:C47)</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="11">
+        <f>SUM(D43:D47)</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="11">
+        <f>SUM(E43:E47)</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="11">
+        <f t="shared" ref="I48:P48" si="22">SUM(I43:I47)</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="11">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="11">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="11">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="11">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="N48" s="11">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O48" s="11">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>97</v>
-      </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="15"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="10"/>
-      <c r="S49" s="10"/>
-      <c r="T49" s="10"/>
-      <c r="U49" s="10"/>
-      <c r="V49" s="15"/>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>105</v>
-      </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="15"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="10"/>
-      <c r="S50" s="10"/>
-      <c r="T50" s="10"/>
-      <c r="U50" s="10"/>
-      <c r="V50" s="15"/>
-    </row>
-    <row r="51" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>28</v>
-      </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="15"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="10"/>
-      <c r="S51" s="10"/>
-      <c r="T51" s="10"/>
-      <c r="U51" s="10"/>
-      <c r="V51" s="15"/>
-    </row>
-    <row r="52" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>98</v>
-      </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="15"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="10"/>
-      <c r="R52" s="10"/>
-      <c r="S52" s="10"/>
-      <c r="T52" s="10"/>
-      <c r="U52" s="10"/>
-      <c r="V52" s="15"/>
-    </row>
-    <row r="53" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>99</v>
-      </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="15"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="10"/>
-      <c r="R53" s="10"/>
-      <c r="S53" s="10"/>
-      <c r="T53" s="10"/>
-      <c r="U53" s="10"/>
-      <c r="V53" s="15"/>
-    </row>
-    <row r="54" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>100</v>
-      </c>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="15"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="10"/>
-      <c r="R54" s="10"/>
-      <c r="S54" s="10"/>
-      <c r="T54" s="10"/>
-      <c r="U54" s="10"/>
-      <c r="V54" s="15"/>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>101</v>
-      </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="15"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="10"/>
-      <c r="R55" s="10"/>
-      <c r="S55" s="10"/>
-      <c r="T55" s="10"/>
-      <c r="U55" s="10"/>
-      <c r="V55" s="15"/>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>109</v>
-      </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="15"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
-      <c r="Q56" s="10"/>
-      <c r="R56" s="10"/>
-      <c r="S56" s="10"/>
-      <c r="T56" s="10"/>
-      <c r="U56" s="10"/>
-      <c r="V56" s="15"/>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B57" s="11">
-        <f t="shared" ref="B57:C57" si="15">SUM(B46:B56)</f>
+        <v>74</v>
+      </c>
+      <c r="B49" s="10">
+        <f>B39-B48</f>
         <v>0</v>
       </c>
-      <c r="C57" s="11">
-        <f t="shared" si="15"/>
+      <c r="C49" s="10">
+        <f>C39-C48</f>
         <v>0</v>
       </c>
-      <c r="D57" s="11">
-        <f>SUM(D46:D56)</f>
+      <c r="D49" s="10">
+        <f>D39-D48</f>
         <v>0</v>
       </c>
-      <c r="E57" s="11">
-        <f t="shared" ref="E57:F57" si="16">SUM(E46:E56)</f>
+      <c r="E49" s="15">
+        <f>E39-E48</f>
         <v>0</v>
       </c>
-      <c r="F57" s="14">
-        <f t="shared" si="16"/>
+      <c r="I49" s="10">
+        <f t="shared" ref="I49:P49" si="23">I39-I48</f>
         <v>0</v>
       </c>
-      <c r="K57" s="11">
-        <f t="shared" ref="K57:V57" si="17">SUM(K46:K55)</f>
+      <c r="J49" s="10">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L57" s="11">
-        <f t="shared" si="17"/>
+      <c r="K49" s="10">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="M57" s="11">
-        <f t="shared" si="17"/>
+      <c r="L49" s="10">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="N57" s="11">
-        <f>SUM(N46:N55)</f>
+      <c r="M49" s="10">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="O57" s="11">
-        <f t="shared" si="17"/>
+      <c r="N49" s="10">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="P57" s="11">
-        <f>SUM(P46:P55)</f>
+      <c r="O49" s="10">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Q57" s="11">
-        <f t="shared" si="17"/>
+      <c r="P49" s="15">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="R57" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="S57" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="T57" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U57" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="V57" s="14">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>106</v>
-      </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="15"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="10"/>
-      <c r="R58" s="10"/>
-      <c r="S58" s="10"/>
-      <c r="T58" s="10"/>
-      <c r="U58" s="10"/>
-      <c r="V58" s="15"/>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>32</v>
-      </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="15"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="10"/>
-      <c r="R59" s="10"/>
-      <c r="S59" s="10"/>
-      <c r="T59" s="10"/>
-      <c r="U59" s="10"/>
-      <c r="V59" s="15"/>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    </row>
+    <row r="51" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="60" t="e">
+        <f>-B9/(B44+B40)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C51" s="60" t="e">
+        <f>-C9/(C44+C40)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D51" s="60" t="e">
+        <f>-D9/(D44+D40)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E51" s="54" t="e">
+        <f>-E9/(E44+E40)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P51" s="16"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="15"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="10"/>
-      <c r="R60" s="10"/>
-      <c r="S60" s="10"/>
-      <c r="T60" s="10"/>
-      <c r="U60" s="10"/>
-      <c r="V60" s="15"/>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>20</v>
-      </c>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="15"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="10"/>
-      <c r="P61" s="10"/>
-      <c r="Q61" s="10"/>
-      <c r="R61" s="10"/>
-      <c r="S61" s="10"/>
-      <c r="T61" s="10"/>
-      <c r="U61" s="10"/>
-      <c r="V61" s="15"/>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>110</v>
-      </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="15"/>
-      <c r="K62" s="10"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="10"/>
-      <c r="O62" s="10"/>
-      <c r="P62" s="10"/>
-      <c r="Q62" s="10"/>
-      <c r="R62" s="10"/>
-      <c r="S62" s="10"/>
-      <c r="T62" s="10"/>
-      <c r="U62" s="10"/>
-      <c r="V62" s="15"/>
-    </row>
-    <row r="63" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B63" s="11">
-        <f>SUM(B58:B62)</f>
-        <v>0</v>
-      </c>
-      <c r="C63" s="11">
-        <f>SUM(C58:C62)</f>
-        <v>0</v>
-      </c>
-      <c r="D63" s="11">
-        <f>SUM(D58:D62)</f>
-        <v>0</v>
-      </c>
-      <c r="E63" s="11">
-        <f>SUM(E58:E62)</f>
-        <v>0</v>
-      </c>
-      <c r="F63" s="14">
-        <f>SUM(F58:F62)</f>
-        <v>0</v>
-      </c>
-      <c r="K63" s="11">
-        <f t="shared" ref="K63:V63" si="18">SUM(K58:K62)</f>
-        <v>0</v>
-      </c>
-      <c r="L63" s="11">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="M63" s="11">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N63" s="11">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="O63" s="11">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="P63" s="11">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Q63" s="11">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="R63" s="11">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="S63" s="11">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="T63" s="11">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="U63" s="11">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="V63" s="14">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="W63" s="11"/>
-      <c r="X63" s="11"/>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>100</v>
-      </c>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="15"/>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="10"/>
-      <c r="O64" s="10"/>
-      <c r="P64" s="10"/>
-      <c r="Q64" s="10"/>
-      <c r="R64" s="10"/>
-      <c r="S64" s="10"/>
-      <c r="T64" s="10"/>
-      <c r="U64" s="10"/>
-      <c r="V64" s="15"/>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>69</v>
-      </c>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="15"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
-      <c r="O65" s="10"/>
-      <c r="P65" s="10"/>
-      <c r="Q65" s="10"/>
-      <c r="R65" s="10"/>
-      <c r="S65" s="10"/>
-      <c r="T65" s="10"/>
-      <c r="U65" s="10"/>
-      <c r="V65" s="15"/>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>29</v>
-      </c>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="15"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="10"/>
-      <c r="O66" s="10"/>
-      <c r="P66" s="10"/>
-      <c r="Q66" s="10"/>
-      <c r="R66" s="10"/>
-      <c r="S66" s="10"/>
-      <c r="T66" s="10"/>
-      <c r="U66" s="10"/>
-      <c r="V66" s="15"/>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>102</v>
-      </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="15"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
-      <c r="O67" s="10"/>
-      <c r="P67" s="10"/>
-      <c r="Q67" s="10"/>
-      <c r="R67" s="10"/>
-      <c r="S67" s="10"/>
-      <c r="T67" s="10"/>
-      <c r="U67" s="10"/>
-      <c r="V67" s="15"/>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>111</v>
-      </c>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="15"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="10"/>
-      <c r="R68" s="10"/>
-      <c r="S68" s="10"/>
-      <c r="T68" s="10"/>
-      <c r="U68" s="10"/>
-      <c r="V68" s="15"/>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B69" s="11">
-        <f>SUM(B63:B68)</f>
-        <v>0</v>
-      </c>
-      <c r="C69" s="11">
-        <f t="shared" ref="C69:F69" si="19">SUM(C63:C68)</f>
-        <v>0</v>
-      </c>
-      <c r="D69" s="11">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E69" s="11">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="F69" s="14">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="K69" s="11">
-        <f t="shared" ref="K69:U69" si="20">SUM(K63:K68)</f>
-        <v>0</v>
-      </c>
-      <c r="L69" s="11">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="M69" s="11">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="N69" s="11">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="O69" s="11">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="P69" s="11">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="Q69" s="11">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="R69" s="11">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="S69" s="11">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="T69" s="11">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="U69" s="11">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="V69" s="14">
-        <f>SUM(V63:V68)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>104</v>
-      </c>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-    </row>
-    <row r="72" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B72" s="61" t="e">
-        <f>-B18/(B67+B58)</f>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39" t="e">
+        <f>((C44+C40)/(B44+B40))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C72" s="61" t="e">
-        <f t="shared" ref="C72:F72" si="21">-C18/(C67+C58)</f>
+      <c r="D52" s="39" t="e">
+        <f>((D44+D40)/(C44+C40))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D72" s="61" t="e">
-        <f t="shared" si="21"/>
+      <c r="E52" s="6" t="e">
+        <f>((E44+E40)/(D44+D40))-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E72" s="61" t="e">
-        <f>-E18/(E67+E58)</f>
+      <c r="K52" s="39"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39" t="e">
+        <f>(M40+M44)/(I40+I44)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F72" s="62" t="e">
-        <f t="shared" si="21"/>
+      <c r="N52" s="39" t="e">
+        <f>(N40+N44)/(J40+J44)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V72" s="16"/>
-    </row>
-    <row r="90" spans="6:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F90" s="42"/>
-      <c r="V90" s="42"/>
-    </row>
-    <row r="91" spans="6:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F91" s="16"/>
-      <c r="V91" s="16"/>
+      <c r="O52" s="39" t="e">
+        <f>(O40+O44)/(K40+K44)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P52" s="6" t="e">
+        <f>(P40+P44)/(L40+L44)-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="69" spans="5:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E69" s="41"/>
+      <c r="P69" s="41"/>
+    </row>
+    <row r="70" spans="5:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E70" s="16"/>
+      <c r="P70" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -13396,9 +10586,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="B63" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -13406,8 +10593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48E03BE-2423-4BDB-9A98-002F9CED8953}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="X45" sqref="X45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13422,7 +10609,7 @@
   <dimension ref="A1:L2067"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13438,1610 +10625,1610 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
-      <c r="B2" s="18"/>
+      <c r="B2" s="17"/>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
-      <c r="B3" s="18"/>
+      <c r="B3" s="17"/>
       <c r="D3" s="12">
         <v>45328</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
-      <c r="B4" s="18"/>
+      <c r="B4" s="17"/>
       <c r="D4" s="12">
         <v>45302</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
-      <c r="B5" s="18"/>
+      <c r="B5" s="17"/>
       <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="18"/>
+      <c r="B6" s="17"/>
       <c r="L6" s="12"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
-      <c r="B7" s="18"/>
+      <c r="B7" s="17"/>
       <c r="L7" s="12"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
-      <c r="B8" s="18"/>
+      <c r="B8" s="17"/>
       <c r="L8" s="12"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
-      <c r="B9" s="18"/>
+      <c r="B9" s="17"/>
       <c r="L9" s="12"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
-      <c r="B10" s="18"/>
+      <c r="B10" s="17"/>
       <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
-      <c r="B11" s="18"/>
+      <c r="B11" s="17"/>
       <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
-      <c r="B12" s="18"/>
+      <c r="B12" s="17"/>
       <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="18"/>
+      <c r="B13" s="17"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="18"/>
+      <c r="B14" s="17"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="18"/>
+      <c r="B15" s="17"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
-      <c r="B16" s="18"/>
+      <c r="B16" s="17"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
-      <c r="B17" s="18"/>
+      <c r="B17" s="17"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
-      <c r="B18" s="18"/>
+      <c r="B18" s="17"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
-      <c r="B19" s="18"/>
+      <c r="B19" s="17"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
-      <c r="B20" s="18"/>
+      <c r="B20" s="17"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
-      <c r="B21" s="18"/>
+      <c r="B21" s="17"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
-      <c r="B22" s="18"/>
+      <c r="B22" s="17"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
-      <c r="B23" s="18"/>
+      <c r="B23" s="17"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
-      <c r="B24" s="18"/>
+      <c r="B24" s="17"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
-      <c r="B25" s="18"/>
+      <c r="B25" s="17"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
-      <c r="B26" s="18"/>
+      <c r="B26" s="17"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
-      <c r="B27" s="18"/>
+      <c r="B27" s="17"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
-      <c r="B28" s="18"/>
+      <c r="B28" s="17"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
-      <c r="B29" s="18"/>
+      <c r="B29" s="17"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
-      <c r="B30" s="18"/>
+      <c r="B30" s="17"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
-      <c r="B31" s="18"/>
+      <c r="B31" s="17"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
-      <c r="B32" s="18"/>
+      <c r="B32" s="17"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
-      <c r="B33" s="18"/>
+      <c r="B33" s="17"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
-      <c r="B34" s="18"/>
+      <c r="B34" s="17"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
-      <c r="B35" s="18"/>
+      <c r="B35" s="17"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
-      <c r="B36" s="18"/>
+      <c r="B36" s="17"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
-      <c r="B37" s="18"/>
+      <c r="B37" s="17"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
-      <c r="B38" s="18"/>
+      <c r="B38" s="17"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
-      <c r="B39" s="18"/>
+      <c r="B39" s="17"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
-      <c r="B40" s="18"/>
+      <c r="B40" s="17"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
-      <c r="B41" s="18"/>
+      <c r="B41" s="17"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
-      <c r="B42" s="18"/>
+      <c r="B42" s="17"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
-      <c r="B43" s="18"/>
+      <c r="B43" s="17"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
-      <c r="B44" s="18"/>
+      <c r="B44" s="17"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
-      <c r="B45" s="18"/>
+      <c r="B45" s="17"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
-      <c r="B46" s="18"/>
+      <c r="B46" s="17"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
-      <c r="B47" s="18"/>
+      <c r="B47" s="17"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
-      <c r="B48" s="18"/>
+      <c r="B48" s="17"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
-      <c r="B49" s="18"/>
+      <c r="B49" s="17"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
-      <c r="B50" s="18"/>
+      <c r="B50" s="17"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
-      <c r="B51" s="18"/>
+      <c r="B51" s="17"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="12"/>
-      <c r="B52" s="18"/>
+      <c r="B52" s="17"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
-      <c r="B53" s="18"/>
+      <c r="B53" s="17"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
-      <c r="B54" s="18"/>
+      <c r="B54" s="17"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
-      <c r="B55" s="18"/>
+      <c r="B55" s="17"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
-      <c r="B56" s="18"/>
+      <c r="B56" s="17"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
-      <c r="B57" s="18"/>
+      <c r="B57" s="17"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
-      <c r="B58" s="18"/>
+      <c r="B58" s="17"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
-      <c r="B59" s="18"/>
+      <c r="B59" s="17"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
-      <c r="B60" s="18"/>
+      <c r="B60" s="17"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
-      <c r="B61" s="18"/>
+      <c r="B61" s="17"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
-      <c r="B62" s="18"/>
+      <c r="B62" s="17"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="12"/>
-      <c r="B63" s="18"/>
+      <c r="B63" s="17"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="12"/>
-      <c r="B64" s="18"/>
+      <c r="B64" s="17"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="12"/>
-      <c r="B65" s="18"/>
+      <c r="B65" s="17"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="12"/>
-      <c r="B66" s="18"/>
+      <c r="B66" s="17"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="12"/>
-      <c r="B67" s="18"/>
+      <c r="B67" s="17"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="12"/>
-      <c r="B68" s="18"/>
+      <c r="B68" s="17"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="12"/>
-      <c r="B69" s="18"/>
+      <c r="B69" s="17"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="12"/>
-      <c r="B70" s="18"/>
+      <c r="B70" s="17"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="12"/>
-      <c r="B71" s="18"/>
+      <c r="B71" s="17"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="12"/>
-      <c r="B72" s="18"/>
+      <c r="B72" s="17"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="12"/>
-      <c r="B73" s="18"/>
+      <c r="B73" s="17"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="12"/>
-      <c r="B74" s="18"/>
+      <c r="B74" s="17"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="12"/>
-      <c r="B75" s="18"/>
+      <c r="B75" s="17"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="12"/>
-      <c r="B76" s="18"/>
+      <c r="B76" s="17"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="12"/>
-      <c r="B77" s="18"/>
+      <c r="B77" s="17"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="12"/>
-      <c r="B78" s="18"/>
+      <c r="B78" s="17"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="12"/>
-      <c r="B79" s="18"/>
+      <c r="B79" s="17"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="12"/>
-      <c r="B80" s="18"/>
+      <c r="B80" s="17"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="12"/>
-      <c r="B81" s="18"/>
+      <c r="B81" s="17"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="12"/>
-      <c r="B82" s="18"/>
+      <c r="B82" s="17"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="12"/>
-      <c r="B83" s="18"/>
+      <c r="B83" s="17"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="12"/>
-      <c r="B84" s="18"/>
+      <c r="B84" s="17"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="12"/>
-      <c r="B85" s="18"/>
+      <c r="B85" s="17"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="12"/>
-      <c r="B86" s="18"/>
+      <c r="B86" s="17"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="12"/>
-      <c r="B87" s="18"/>
+      <c r="B87" s="17"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="12"/>
-      <c r="B88" s="18"/>
+      <c r="B88" s="17"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="12"/>
-      <c r="B89" s="18"/>
+      <c r="B89" s="17"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="12"/>
-      <c r="B90" s="18"/>
+      <c r="B90" s="17"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="12"/>
-      <c r="B91" s="18"/>
+      <c r="B91" s="17"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="12"/>
-      <c r="B92" s="18"/>
+      <c r="B92" s="17"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="12"/>
-      <c r="B93" s="18"/>
+      <c r="B93" s="17"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="12"/>
-      <c r="B94" s="18"/>
+      <c r="B94" s="17"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="12"/>
-      <c r="B95" s="18"/>
+      <c r="B95" s="17"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="12"/>
-      <c r="B96" s="18"/>
+      <c r="B96" s="17"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="12"/>
-      <c r="B97" s="18"/>
+      <c r="B97" s="17"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="12"/>
-      <c r="B98" s="18"/>
+      <c r="B98" s="17"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="12"/>
-      <c r="B99" s="18"/>
+      <c r="B99" s="17"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="12"/>
-      <c r="B100" s="18"/>
+      <c r="B100" s="17"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="12"/>
-      <c r="B101" s="18"/>
+      <c r="B101" s="17"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="12"/>
-      <c r="B102" s="18"/>
+      <c r="B102" s="17"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="12"/>
-      <c r="B103" s="18"/>
+      <c r="B103" s="17"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="12"/>
-      <c r="B104" s="18"/>
+      <c r="B104" s="17"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="12"/>
-      <c r="B105" s="18"/>
+      <c r="B105" s="17"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="12"/>
-      <c r="B106" s="18"/>
+      <c r="B106" s="17"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="12"/>
-      <c r="B107" s="18"/>
+      <c r="B107" s="17"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="12"/>
-      <c r="B108" s="18"/>
+      <c r="B108" s="17"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="12"/>
-      <c r="B109" s="18"/>
+      <c r="B109" s="17"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="12"/>
-      <c r="B110" s="18"/>
+      <c r="B110" s="17"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="12"/>
-      <c r="B111" s="18"/>
+      <c r="B111" s="17"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="12"/>
-      <c r="B112" s="18"/>
+      <c r="B112" s="17"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="12"/>
-      <c r="B113" s="18"/>
+      <c r="B113" s="17"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
-      <c r="B114" s="18"/>
+      <c r="B114" s="17"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
-      <c r="B115" s="18"/>
+      <c r="B115" s="17"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
-      <c r="B116" s="18"/>
+      <c r="B116" s="17"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="12"/>
-      <c r="B117" s="18"/>
+      <c r="B117" s="17"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="12"/>
-      <c r="B118" s="18"/>
+      <c r="B118" s="17"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="12"/>
-      <c r="B119" s="18"/>
+      <c r="B119" s="17"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="12"/>
-      <c r="B120" s="18"/>
+      <c r="B120" s="17"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="12"/>
-      <c r="B121" s="18"/>
+      <c r="B121" s="17"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="12"/>
-      <c r="B122" s="18"/>
+      <c r="B122" s="17"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="12"/>
-      <c r="B123" s="18"/>
+      <c r="B123" s="17"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="12"/>
-      <c r="B124" s="18"/>
+      <c r="B124" s="17"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="12"/>
-      <c r="B125" s="18"/>
+      <c r="B125" s="17"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="12"/>
-      <c r="B126" s="18"/>
+      <c r="B126" s="17"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="12"/>
-      <c r="B127" s="18"/>
+      <c r="B127" s="17"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="12"/>
-      <c r="B128" s="18"/>
+      <c r="B128" s="17"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="12"/>
-      <c r="B129" s="18"/>
+      <c r="B129" s="17"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="12"/>
-      <c r="B130" s="18"/>
+      <c r="B130" s="17"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="12"/>
-      <c r="B131" s="18"/>
+      <c r="B131" s="17"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="12"/>
-      <c r="B132" s="18"/>
+      <c r="B132" s="17"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="12"/>
-      <c r="B133" s="18"/>
+      <c r="B133" s="17"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="12"/>
-      <c r="B134" s="18"/>
+      <c r="B134" s="17"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="12"/>
-      <c r="B135" s="18"/>
+      <c r="B135" s="17"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="12"/>
-      <c r="B136" s="18"/>
+      <c r="B136" s="17"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="12"/>
-      <c r="B137" s="18"/>
+      <c r="B137" s="17"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="12"/>
-      <c r="B138" s="18"/>
+      <c r="B138" s="17"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="12"/>
-      <c r="B139" s="18"/>
+      <c r="B139" s="17"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="12"/>
-      <c r="B140" s="18"/>
+      <c r="B140" s="17"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="12"/>
-      <c r="B141" s="18"/>
+      <c r="B141" s="17"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="12"/>
-      <c r="B142" s="18"/>
+      <c r="B142" s="17"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="12"/>
-      <c r="B143" s="18"/>
+      <c r="B143" s="17"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="12"/>
-      <c r="B144" s="18"/>
+      <c r="B144" s="17"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="12"/>
-      <c r="B145" s="18"/>
+      <c r="B145" s="17"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="12"/>
-      <c r="B146" s="18"/>
+      <c r="B146" s="17"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="12"/>
-      <c r="B147" s="18"/>
+      <c r="B147" s="17"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="12"/>
-      <c r="B148" s="18"/>
+      <c r="B148" s="17"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="12"/>
-      <c r="B149" s="18"/>
+      <c r="B149" s="17"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="12"/>
-      <c r="B150" s="18"/>
+      <c r="B150" s="17"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="12"/>
-      <c r="B151" s="18"/>
+      <c r="B151" s="17"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="12"/>
-      <c r="B152" s="18"/>
+      <c r="B152" s="17"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="12"/>
-      <c r="B153" s="18"/>
+      <c r="B153" s="17"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="12"/>
-      <c r="B154" s="18"/>
+      <c r="B154" s="17"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="12"/>
-      <c r="B155" s="18"/>
+      <c r="B155" s="17"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="12"/>
-      <c r="B156" s="18"/>
+      <c r="B156" s="17"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="12"/>
-      <c r="B157" s="18"/>
+      <c r="B157" s="17"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="12"/>
-      <c r="B158" s="18"/>
+      <c r="B158" s="17"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="12"/>
-      <c r="B159" s="18"/>
+      <c r="B159" s="17"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="12"/>
-      <c r="B160" s="18"/>
+      <c r="B160" s="17"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="12"/>
-      <c r="B161" s="18"/>
+      <c r="B161" s="17"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="12"/>
-      <c r="B162" s="18"/>
+      <c r="B162" s="17"/>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="12"/>
-      <c r="B163" s="18"/>
+      <c r="B163" s="17"/>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="12"/>
-      <c r="B164" s="18"/>
+      <c r="B164" s="17"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="12"/>
-      <c r="B165" s="18"/>
+      <c r="B165" s="17"/>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="12"/>
-      <c r="B166" s="18"/>
+      <c r="B166" s="17"/>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="12"/>
-      <c r="B167" s="18"/>
+      <c r="B167" s="17"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="12"/>
-      <c r="B168" s="18"/>
+      <c r="B168" s="17"/>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="12"/>
-      <c r="B169" s="18"/>
+      <c r="B169" s="17"/>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="12"/>
-      <c r="B170" s="18"/>
+      <c r="B170" s="17"/>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="12"/>
-      <c r="B171" s="18"/>
+      <c r="B171" s="17"/>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="12"/>
-      <c r="B172" s="18"/>
+      <c r="B172" s="17"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="12"/>
-      <c r="B173" s="18"/>
+      <c r="B173" s="17"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="12"/>
-      <c r="B174" s="18"/>
+      <c r="B174" s="17"/>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="12"/>
-      <c r="B175" s="18"/>
+      <c r="B175" s="17"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="12"/>
-      <c r="B176" s="18"/>
+      <c r="B176" s="17"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="12"/>
-      <c r="B177" s="18"/>
+      <c r="B177" s="17"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="12"/>
-      <c r="B178" s="18"/>
+      <c r="B178" s="17"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="12"/>
-      <c r="B179" s="18"/>
+      <c r="B179" s="17"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="12"/>
-      <c r="B180" s="18"/>
+      <c r="B180" s="17"/>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="12"/>
-      <c r="B181" s="18"/>
+      <c r="B181" s="17"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="12"/>
-      <c r="B182" s="18"/>
+      <c r="B182" s="17"/>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="12"/>
-      <c r="B183" s="18"/>
+      <c r="B183" s="17"/>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="12"/>
-      <c r="B184" s="18"/>
+      <c r="B184" s="17"/>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="12"/>
-      <c r="B185" s="18"/>
+      <c r="B185" s="17"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="12"/>
-      <c r="B186" s="18"/>
+      <c r="B186" s="17"/>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="12"/>
-      <c r="B187" s="18"/>
+      <c r="B187" s="17"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="12"/>
-      <c r="B188" s="18"/>
+      <c r="B188" s="17"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="12"/>
-      <c r="B189" s="18"/>
+      <c r="B189" s="17"/>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="12"/>
-      <c r="B190" s="18"/>
+      <c r="B190" s="17"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="12"/>
-      <c r="B191" s="18"/>
+      <c r="B191" s="17"/>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="12"/>
-      <c r="B192" s="18"/>
+      <c r="B192" s="17"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="12"/>
-      <c r="B193" s="18"/>
+      <c r="B193" s="17"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="12"/>
-      <c r="B194" s="18"/>
+      <c r="B194" s="17"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="12"/>
-      <c r="B195" s="18"/>
+      <c r="B195" s="17"/>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="12"/>
-      <c r="B196" s="18"/>
+      <c r="B196" s="17"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="12"/>
-      <c r="B197" s="18"/>
+      <c r="B197" s="17"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="12"/>
-      <c r="B198" s="18"/>
+      <c r="B198" s="17"/>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="12"/>
-      <c r="B199" s="18"/>
+      <c r="B199" s="17"/>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="12"/>
-      <c r="B200" s="18"/>
+      <c r="B200" s="17"/>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="12"/>
-      <c r="B201" s="18"/>
+      <c r="B201" s="17"/>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="12"/>
-      <c r="B202" s="18"/>
+      <c r="B202" s="17"/>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="12"/>
-      <c r="B203" s="18"/>
+      <c r="B203" s="17"/>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="12"/>
-      <c r="B204" s="18"/>
+      <c r="B204" s="17"/>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="12"/>
-      <c r="B205" s="18"/>
+      <c r="B205" s="17"/>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="12"/>
-      <c r="B206" s="18"/>
+      <c r="B206" s="17"/>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="12"/>
-      <c r="B207" s="18"/>
+      <c r="B207" s="17"/>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="12"/>
-      <c r="B208" s="18"/>
+      <c r="B208" s="17"/>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="12"/>
-      <c r="B209" s="18"/>
+      <c r="B209" s="17"/>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="12"/>
-      <c r="B210" s="18"/>
+      <c r="B210" s="17"/>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="12"/>
-      <c r="B211" s="18"/>
+      <c r="B211" s="17"/>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="12"/>
-      <c r="B212" s="18"/>
+      <c r="B212" s="17"/>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="12"/>
-      <c r="B213" s="18"/>
+      <c r="B213" s="17"/>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="12"/>
-      <c r="B214" s="18"/>
+      <c r="B214" s="17"/>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="12"/>
-      <c r="B215" s="18"/>
+      <c r="B215" s="17"/>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="12"/>
-      <c r="B216" s="18"/>
+      <c r="B216" s="17"/>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="12"/>
-      <c r="B217" s="18"/>
+      <c r="B217" s="17"/>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="12"/>
-      <c r="B218" s="18"/>
+      <c r="B218" s="17"/>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="12"/>
-      <c r="B219" s="18"/>
+      <c r="B219" s="17"/>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="12"/>
-      <c r="B220" s="18"/>
+      <c r="B220" s="17"/>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="12"/>
-      <c r="B221" s="18"/>
+      <c r="B221" s="17"/>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="12"/>
-      <c r="B222" s="18"/>
+      <c r="B222" s="17"/>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="12"/>
-      <c r="B223" s="18"/>
+      <c r="B223" s="17"/>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="12"/>
-      <c r="B224" s="18"/>
+      <c r="B224" s="17"/>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="12"/>
-      <c r="B225" s="18"/>
+      <c r="B225" s="17"/>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="12"/>
-      <c r="B226" s="18"/>
+      <c r="B226" s="17"/>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="12"/>
-      <c r="B227" s="18"/>
+      <c r="B227" s="17"/>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="12"/>
-      <c r="B228" s="18"/>
+      <c r="B228" s="17"/>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="12"/>
-      <c r="B229" s="18"/>
+      <c r="B229" s="17"/>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="12"/>
-      <c r="B230" s="18"/>
+      <c r="B230" s="17"/>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="12"/>
-      <c r="B231" s="18"/>
+      <c r="B231" s="17"/>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="12"/>
-      <c r="B232" s="18"/>
+      <c r="B232" s="17"/>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="12"/>
-      <c r="B233" s="18"/>
+      <c r="B233" s="17"/>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="12"/>
-      <c r="B234" s="18"/>
+      <c r="B234" s="17"/>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="12"/>
-      <c r="B235" s="18"/>
+      <c r="B235" s="17"/>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="12"/>
-      <c r="B236" s="18"/>
+      <c r="B236" s="17"/>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="12"/>
-      <c r="B237" s="18"/>
+      <c r="B237" s="17"/>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="12"/>
-      <c r="B238" s="18"/>
+      <c r="B238" s="17"/>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="12"/>
-      <c r="B239" s="18"/>
+      <c r="B239" s="17"/>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="12"/>
-      <c r="B240" s="18"/>
+      <c r="B240" s="17"/>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="12"/>
-      <c r="B241" s="18"/>
+      <c r="B241" s="17"/>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="12"/>
-      <c r="B242" s="18"/>
+      <c r="B242" s="17"/>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="12"/>
-      <c r="B243" s="18"/>
+      <c r="B243" s="17"/>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="12"/>
-      <c r="B244" s="18"/>
+      <c r="B244" s="17"/>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="12"/>
-      <c r="B245" s="18"/>
+      <c r="B245" s="17"/>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="12"/>
-      <c r="B246" s="18"/>
+      <c r="B246" s="17"/>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="12"/>
-      <c r="B247" s="18"/>
+      <c r="B247" s="17"/>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="12"/>
-      <c r="B248" s="18"/>
+      <c r="B248" s="17"/>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="12"/>
-      <c r="B249" s="18"/>
+      <c r="B249" s="17"/>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="12"/>
-      <c r="B250" s="18"/>
+      <c r="B250" s="17"/>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="12"/>
-      <c r="B251" s="18"/>
+      <c r="B251" s="17"/>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="12"/>
-      <c r="B252" s="18"/>
+      <c r="B252" s="17"/>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="12"/>
-      <c r="B253" s="18"/>
+      <c r="B253" s="17"/>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="12"/>
-      <c r="B254" s="18"/>
+      <c r="B254" s="17"/>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="12"/>
-      <c r="B255" s="18"/>
+      <c r="B255" s="17"/>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="12"/>
-      <c r="B256" s="18"/>
+      <c r="B256" s="17"/>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="12"/>
-      <c r="B257" s="18"/>
+      <c r="B257" s="17"/>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="12"/>
-      <c r="B258" s="18"/>
+      <c r="B258" s="17"/>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="12"/>
-      <c r="B259" s="18"/>
+      <c r="B259" s="17"/>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="12"/>
-      <c r="B260" s="18"/>
+      <c r="B260" s="17"/>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="12"/>
-      <c r="B261" s="18"/>
+      <c r="B261" s="17"/>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="12"/>
-      <c r="B262" s="18"/>
+      <c r="B262" s="17"/>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="12"/>
-      <c r="B263" s="18"/>
+      <c r="B263" s="17"/>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="12"/>
-      <c r="B264" s="18"/>
+      <c r="B264" s="17"/>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="12"/>
-      <c r="B265" s="18"/>
+      <c r="B265" s="17"/>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="12"/>
-      <c r="B266" s="18"/>
+      <c r="B266" s="17"/>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="12"/>
-      <c r="B267" s="18"/>
+      <c r="B267" s="17"/>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="12"/>
-      <c r="B268" s="18"/>
+      <c r="B268" s="17"/>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="12"/>
-      <c r="B269" s="18"/>
+      <c r="B269" s="17"/>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="12"/>
-      <c r="B270" s="18"/>
+      <c r="B270" s="17"/>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="12"/>
-      <c r="B271" s="18"/>
+      <c r="B271" s="17"/>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="12"/>
-      <c r="B272" s="18"/>
+      <c r="B272" s="17"/>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="12"/>
-      <c r="B273" s="18"/>
+      <c r="B273" s="17"/>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="12"/>
-      <c r="B274" s="18"/>
+      <c r="B274" s="17"/>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="12"/>
-      <c r="B275" s="18"/>
+      <c r="B275" s="17"/>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="12"/>
-      <c r="B276" s="18"/>
+      <c r="B276" s="17"/>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="12"/>
-      <c r="B277" s="18"/>
+      <c r="B277" s="17"/>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="12"/>
-      <c r="B278" s="18"/>
+      <c r="B278" s="17"/>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="12"/>
-      <c r="B279" s="18"/>
+      <c r="B279" s="17"/>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="12"/>
-      <c r="B280" s="18"/>
+      <c r="B280" s="17"/>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="12"/>
-      <c r="B281" s="18"/>
+      <c r="B281" s="17"/>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="12"/>
-      <c r="B282" s="18"/>
+      <c r="B282" s="17"/>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="12"/>
-      <c r="B283" s="18"/>
+      <c r="B283" s="17"/>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="12"/>
-      <c r="B284" s="18"/>
+      <c r="B284" s="17"/>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="12"/>
-      <c r="B285" s="18"/>
+      <c r="B285" s="17"/>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="12"/>
-      <c r="B286" s="18"/>
+      <c r="B286" s="17"/>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="12"/>
-      <c r="B287" s="18"/>
+      <c r="B287" s="17"/>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="12"/>
-      <c r="B288" s="18"/>
+      <c r="B288" s="17"/>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="12"/>
-      <c r="B289" s="18"/>
+      <c r="B289" s="17"/>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="12"/>
-      <c r="B290" s="18"/>
+      <c r="B290" s="17"/>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="12"/>
-      <c r="B291" s="18"/>
+      <c r="B291" s="17"/>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="12"/>
-      <c r="B292" s="18"/>
+      <c r="B292" s="17"/>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="12"/>
-      <c r="B293" s="18"/>
+      <c r="B293" s="17"/>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="12"/>
-      <c r="B294" s="18"/>
+      <c r="B294" s="17"/>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="12"/>
-      <c r="B295" s="18"/>
+      <c r="B295" s="17"/>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="12"/>
-      <c r="B296" s="18"/>
+      <c r="B296" s="17"/>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="12"/>
-      <c r="B297" s="18"/>
+      <c r="B297" s="17"/>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="12"/>
-      <c r="B298" s="18"/>
+      <c r="B298" s="17"/>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="12"/>
-      <c r="B299" s="18"/>
+      <c r="B299" s="17"/>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="12"/>
-      <c r="B300" s="18"/>
+      <c r="B300" s="17"/>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="12"/>
-      <c r="B301" s="18"/>
+      <c r="B301" s="17"/>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="12"/>
-      <c r="B302" s="18"/>
+      <c r="B302" s="17"/>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="12"/>
-      <c r="B303" s="18"/>
+      <c r="B303" s="17"/>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="12"/>
-      <c r="B304" s="18"/>
+      <c r="B304" s="17"/>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="12"/>
-      <c r="B305" s="18"/>
+      <c r="B305" s="17"/>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="12"/>
-      <c r="B306" s="18"/>
+      <c r="B306" s="17"/>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="12"/>
-      <c r="B307" s="18"/>
+      <c r="B307" s="17"/>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="12"/>
-      <c r="B308" s="18"/>
+      <c r="B308" s="17"/>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="12"/>
-      <c r="B309" s="18"/>
+      <c r="B309" s="17"/>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="12"/>
-      <c r="B310" s="18"/>
+      <c r="B310" s="17"/>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="12"/>
-      <c r="B311" s="18"/>
+      <c r="B311" s="17"/>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="12"/>
-      <c r="B312" s="18"/>
+      <c r="B312" s="17"/>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="12"/>
-      <c r="B313" s="18"/>
+      <c r="B313" s="17"/>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="12"/>
-      <c r="B314" s="18"/>
+      <c r="B314" s="17"/>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="12"/>
-      <c r="B315" s="18"/>
+      <c r="B315" s="17"/>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="12"/>
-      <c r="B316" s="18"/>
+      <c r="B316" s="17"/>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="12"/>
-      <c r="B317" s="18"/>
+      <c r="B317" s="17"/>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="12"/>
-      <c r="B318" s="18"/>
+      <c r="B318" s="17"/>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="12"/>
-      <c r="B319" s="18"/>
+      <c r="B319" s="17"/>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="12"/>
-      <c r="B320" s="18"/>
+      <c r="B320" s="17"/>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="12"/>
-      <c r="B321" s="18"/>
+      <c r="B321" s="17"/>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="12"/>
-      <c r="B322" s="18"/>
+      <c r="B322" s="17"/>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="12"/>
-      <c r="B323" s="18"/>
+      <c r="B323" s="17"/>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="12"/>
-      <c r="B324" s="18"/>
+      <c r="B324" s="17"/>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="12"/>
-      <c r="B325" s="18"/>
+      <c r="B325" s="17"/>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="12"/>
-      <c r="B326" s="18"/>
+      <c r="B326" s="17"/>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="12"/>
-      <c r="B327" s="18"/>
+      <c r="B327" s="17"/>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="12"/>
-      <c r="B328" s="18"/>
+      <c r="B328" s="17"/>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="12"/>
-      <c r="B329" s="18"/>
+      <c r="B329" s="17"/>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="12"/>
-      <c r="B330" s="18"/>
+      <c r="B330" s="17"/>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="12"/>
-      <c r="B331" s="18"/>
+      <c r="B331" s="17"/>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="12"/>
-      <c r="B332" s="18"/>
+      <c r="B332" s="17"/>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="12"/>
-      <c r="B333" s="18"/>
+      <c r="B333" s="17"/>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="12"/>
-      <c r="B334" s="18"/>
+      <c r="B334" s="17"/>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="12"/>
-      <c r="B335" s="18"/>
+      <c r="B335" s="17"/>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="12"/>
-      <c r="B336" s="18"/>
+      <c r="B336" s="17"/>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="12"/>
-      <c r="B337" s="18"/>
+      <c r="B337" s="17"/>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="12"/>
-      <c r="B338" s="18"/>
+      <c r="B338" s="17"/>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="12"/>
-      <c r="B339" s="18"/>
+      <c r="B339" s="17"/>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="12"/>
-      <c r="B340" s="18"/>
+      <c r="B340" s="17"/>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="12"/>
-      <c r="B341" s="18"/>
+      <c r="B341" s="17"/>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="12"/>
-      <c r="B342" s="18"/>
+      <c r="B342" s="17"/>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="12"/>
-      <c r="B343" s="18"/>
+      <c r="B343" s="17"/>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="12"/>
-      <c r="B344" s="18"/>
+      <c r="B344" s="17"/>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="12"/>
-      <c r="B345" s="18"/>
+      <c r="B345" s="17"/>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="12"/>
-      <c r="B346" s="18"/>
+      <c r="B346" s="17"/>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="12"/>
-      <c r="B347" s="18"/>
+      <c r="B347" s="17"/>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="12"/>
-      <c r="B348" s="18"/>
+      <c r="B348" s="17"/>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="12"/>
-      <c r="B349" s="18"/>
+      <c r="B349" s="17"/>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="12"/>
-      <c r="B350" s="18"/>
+      <c r="B350" s="17"/>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="12"/>
-      <c r="B351" s="18"/>
+      <c r="B351" s="17"/>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="12"/>
-      <c r="B352" s="18"/>
+      <c r="B352" s="17"/>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="12"/>
-      <c r="B353" s="18"/>
+      <c r="B353" s="17"/>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="12"/>
-      <c r="B354" s="18"/>
+      <c r="B354" s="17"/>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="12"/>
-      <c r="B355" s="18"/>
+      <c r="B355" s="17"/>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="12"/>
-      <c r="B356" s="18"/>
+      <c r="B356" s="17"/>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="12"/>
-      <c r="B357" s="18"/>
+      <c r="B357" s="17"/>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="12"/>
-      <c r="B358" s="18"/>
+      <c r="B358" s="17"/>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="12"/>
-      <c r="B359" s="18"/>
+      <c r="B359" s="17"/>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="12"/>
-      <c r="B360" s="18"/>
+      <c r="B360" s="17"/>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="12"/>
-      <c r="B361" s="18"/>
+      <c r="B361" s="17"/>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="12"/>
-      <c r="B362" s="18"/>
+      <c r="B362" s="17"/>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="12"/>
-      <c r="B363" s="18"/>
+      <c r="B363" s="17"/>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="12"/>
-      <c r="B364" s="18"/>
+      <c r="B364" s="17"/>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="12"/>
-      <c r="B365" s="18"/>
+      <c r="B365" s="17"/>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="12"/>
-      <c r="B366" s="18"/>
+      <c r="B366" s="17"/>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="12"/>
-      <c r="B367" s="18"/>
+      <c r="B367" s="17"/>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="12"/>
-      <c r="B368" s="18"/>
+      <c r="B368" s="17"/>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="12"/>
-      <c r="B369" s="18"/>
+      <c r="B369" s="17"/>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="12"/>
-      <c r="B370" s="18"/>
+      <c r="B370" s="17"/>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="12"/>
-      <c r="B371" s="18"/>
+      <c r="B371" s="17"/>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="12"/>
-      <c r="B372" s="18"/>
+      <c r="B372" s="17"/>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="12"/>
-      <c r="B373" s="18"/>
+      <c r="B373" s="17"/>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="12"/>
-      <c r="B374" s="18"/>
+      <c r="B374" s="17"/>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="12"/>
-      <c r="B375" s="18"/>
+      <c r="B375" s="17"/>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="12"/>
-      <c r="B376" s="18"/>
+      <c r="B376" s="17"/>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="12"/>
-      <c r="B377" s="18"/>
+      <c r="B377" s="17"/>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="12"/>
-      <c r="B378" s="18"/>
+      <c r="B378" s="17"/>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="12"/>
-      <c r="B379" s="18"/>
+      <c r="B379" s="17"/>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="12"/>
-      <c r="B380" s="18"/>
+      <c r="B380" s="17"/>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="12"/>
-      <c r="B381" s="18"/>
+      <c r="B381" s="17"/>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="12"/>
-      <c r="B382" s="18"/>
+      <c r="B382" s="17"/>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="12"/>
-      <c r="B383" s="18"/>
+      <c r="B383" s="17"/>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="12"/>
-      <c r="B384" s="18"/>
+      <c r="B384" s="17"/>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="12"/>
-      <c r="B385" s="18"/>
+      <c r="B385" s="17"/>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="12"/>
-      <c r="B386" s="18"/>
+      <c r="B386" s="17"/>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="12"/>
-      <c r="B387" s="18"/>
+      <c r="B387" s="17"/>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="12"/>
-      <c r="B388" s="18"/>
+      <c r="B388" s="17"/>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="12"/>
-      <c r="B389" s="18"/>
+      <c r="B389" s="17"/>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="12"/>
-      <c r="B390" s="18"/>
+      <c r="B390" s="17"/>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="12"/>
-      <c r="B391" s="18"/>
+      <c r="B391" s="17"/>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="12"/>
-      <c r="B392" s="18"/>
+      <c r="B392" s="17"/>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="12"/>
-      <c r="B393" s="18"/>
+      <c r="B393" s="17"/>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="12"/>
